--- a/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
+++ b/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\09_hardRain\10_ihanseol - 2025\08_농업용 - 예산시, 대술 5개소 - 다다건설(주)\01_예산군 대술면 마전리 820\04_양수시험\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\12_dev\02_Excel3\01_Acquifer Pumping Test\00_양수시험, 테스트 벨류\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B19E45-FF04-4174-93B8-084EFE10A575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA535AD5-54D7-4670-81D4-9E497AB58550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
+    <workbookView xWindow="7635" yWindow="915" windowWidth="29775" windowHeight="19965" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -124,6 +124,110 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> : 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{438E7449-B22E-4FC3-AAA5-069854B90151}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>minhwasoo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>펌프심도</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{56DDC4C9-AB8B-4242-AC30-350EA4B4497F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>minhwasoo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">토출경
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{6C1E23FE-8902-494A-B22E-6099FF8C5277}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>minhwasoo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">양수능력
+</t>
         </r>
       </text>
     </comment>
@@ -1279,63 +1383,6 @@
   </cellStyles>
   <dxfs count="31">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1781,6 +1828,63 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1954,43 +2058,43 @@
     <tableColumn id="1" xr3:uid="{6966E024-5B7D-4BFD-902D-F5A2CC286734}" name="gong" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{B4FD8B7F-6070-4FF0-80D6-327B227030C9}" name="address" dataDxfId="24"/>
     <tableColumn id="3" xr3:uid="{0DF67EF2-B0FF-4B62-A2C7-C83B41E6C7DE}" name="hp" dataDxfId="23"/>
-    <tableColumn id="18" xr3:uid="{E9E425AB-58C3-42C7-A1AA-18A49E40D410}" name="pump_simdo" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{25853BC7-AA92-43CF-92BB-4C1EB59D3445}" name="tochul" dataDxfId="0"/>
-    <tableColumn id="17" xr3:uid="{B8A7B795-4FAC-4E8C-A6DA-C0C16CDBF939}" name="pumping_capacity" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_diameter" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natural" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{A26A3D45-DB5B-4A07-B011-7CCAD006DAAE}" name="stable_time" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{A712B0EE-D79B-4070-A46A-ED247FD69C4F}" name="longterm_test_time" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{3CD6EF40-B05B-4C81-9E87-C143C135F695}" name="bedrock" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{87BF1DD3-1D67-490E-BE05-E27BB394B7DD}" name="ph" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{E9E425AB-58C3-42C7-A1AA-18A49E40D410}" name="pump_simdo" dataDxfId="22"/>
+    <tableColumn id="19" xr3:uid="{25853BC7-AA92-43CF-92BB-4C1EB59D3445}" name="tochul" dataDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{B8A7B795-4FAC-4E8C-A6DA-C0C16CDBF939}" name="pumping_capacity" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_diameter" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natural" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{A26A3D45-DB5B-4A07-B011-7CCAD006DAAE}" name="stable_time" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{A712B0EE-D79B-4070-A46A-ED247FD69C4F}" name="longterm_test_time" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{3CD6EF40-B05B-4C81-9E87-C143C135F695}" name="bedrock" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{87BF1DD3-1D67-490E-BE05-E27BB394B7DD}" name="ph" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:E28" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:E28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
   <autoFilter ref="D1:E28" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="7" dataCellStyle="표준 2"/>
-    <tableColumn id="2" xr3:uid="{E50CFF5F-CC3C-46D1-A33E-D131F0C282A4}" name="안정수위 도달시간" dataDxfId="6" dataCellStyle="표준 2"/>
+    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="4" dataCellStyle="표준 2"/>
+    <tableColumn id="2" xr3:uid="{E50CFF5F-CC3C-46D1-A33E-D131F0C282A4}" name="안정수위 도달시간" dataDxfId="3" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}" name="표8" displayName="표8" ref="C1:C11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}" name="표8" displayName="표8" ref="C1:C11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
   <autoFilter ref="C1:C11" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D0C0DE7A-B5E2-4A78-89A1-D914B8054472}" name="수중모터" dataDxfId="3" dataCellStyle="표준 2"/>
+    <tableColumn id="1" xr3:uid="{D0C0DE7A-B5E2-4A78-89A1-D914B8054472}" name="수중모터" dataDxfId="0" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2300,7 +2404,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
+++ b/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\12_dev\02_Excel3\01_Acquifer Pumping Test\00_양수시험, 테스트 벨류\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\09_hardRain\10_ihanseol - 2025\09_농업용 - 논산사, 원남지구 관정개발 - (주)환일\04_양수시험\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA535AD5-54D7-4670-81D4-9E497AB58550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05252309-A218-41C1-93CA-F7871A965271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7635" yWindow="915" windowWidth="29775" windowHeight="19965" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>W-1</t>
   </si>
@@ -894,19 +894,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>충청남도 예산군 대술면 마전리 820번지</t>
-  </si>
-  <si>
-    <t>예산군 마전 등 5지구 농업용관정 지하수영향조사 용역</t>
-  </si>
-  <si>
-    <t>마전리 820</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>다다건설(주)</t>
-  </si>
-  <si>
     <t>다다건설(주)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -921,6 +908,35 @@
   <si>
     <t>pumping_capacity</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>논산시 성동면 원남리 1428번지</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>원남지구 한발재해대책 관정개발공사</t>
+  </si>
+  <si>
+    <t>원남지구</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주)환일</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)환일</t>
   </si>
 </sst>
 </file>
@@ -2404,7 +2420,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2440,13 +2456,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>6</v>
@@ -2493,46 +2509,46 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1">
         <v>50</v>
       </c>
       <c r="F2" s="1">
-        <v>483</v>
+        <v>270</v>
       </c>
       <c r="G2" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1">
         <v>250</v>
       </c>
       <c r="I2" s="1">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="J2" s="1">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K2" s="1">
-        <v>11.35</v>
+        <v>0.2</v>
       </c>
       <c r="L2" s="1">
-        <v>38.270000000000003</v>
+        <v>19.7</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P2" s="1">
         <v>540</v>
@@ -3182,7 +3198,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3371,14 +3387,16 @@
     </row>
     <row r="18" spans="4:5">
       <c r="D18" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E18" s="8">
         <v>900</v>
       </c>
     </row>
     <row r="19" spans="4:5">
-      <c r="D19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="E19" s="8">
         <v>960</v>
       </c>

--- a/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
+++ b/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\09_hardRain\10_ihanseol - 2025\09_농업용 - 논산사, 원남지구 관정개발 - (주)환일\04_양수시험\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\12_dev\02_Excel3\01_Acquifer Pumping Test\00_양수시험, 테스트 벨류\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05252309-A218-41C1-93CA-F7871A965271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38C832B-37EB-4FA1-B9A9-6656984E657C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -955,7 +955,7 @@
     <numFmt numFmtId="181" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
     <numFmt numFmtId="182" formatCode="#,##0;&quot;-&quot;#,##0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1077,6 +1077,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1306,7 +1315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1366,6 +1375,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -2420,7 +2432,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2511,13 +2523,13 @@
       <c r="B2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="20">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="20">
         <v>60</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="20">
         <v>50</v>
       </c>
       <c r="F2" s="1">
@@ -2535,10 +2547,10 @@
       <c r="J2" s="1">
         <v>230</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="20">
         <v>0.2</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="20">
         <v>19.7</v>
       </c>
       <c r="M2" s="19" t="s">

--- a/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
+++ b/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\12_dev\02_Excel3\01_Acquifer Pumping Test\00_양수시험, 테스트 벨류\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\09_hardRain\10_ihanseol - 2025\10_음용수 - 논산시, 한삼천외 8지구, 3개소 연장허가 - (주)환일\01_논산시 연산면 표정리 333-3\04_양수시험\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38C832B-37EB-4FA1-B9A9-6656984E657C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6587398-DC4D-4D1A-B713-78FD942F5870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
+    <workbookView xWindow="5115" yWindow="405" windowWidth="29925" windowHeight="19710" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>W-1</t>
   </si>
@@ -937,6 +937,14 @@
   </si>
   <si>
     <t>(주)환일</t>
+  </si>
+  <si>
+    <t>yangsoo_time</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>양수시험시간</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1315,7 +1323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1379,6 +1387,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="$" xfId="2" xr:uid="{039EF926-2D79-4287-984F-F219B0B268D2}"/>
@@ -1409,7 +1420,49 @@
     <cellStyle name="표준 2 3" xfId="22" xr:uid="{2C059BE8-8DE9-440B-871D-02E04FA57DC8}"/>
     <cellStyle name="표준 3" xfId="1" xr:uid="{45FF3674-0159-4243-B7B4-B71CAAF105AC}"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2080,49 +2133,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}" name="표1" displayName="표1" ref="A1:S29" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A1:S29" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}"/>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{6966E024-5B7D-4BFD-902D-F5A2CC286734}" name="gong" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{B4FD8B7F-6070-4FF0-80D6-327B227030C9}" name="address" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{0DF67EF2-B0FF-4B62-A2C7-C83B41E6C7DE}" name="hp" dataDxfId="23"/>
-    <tableColumn id="18" xr3:uid="{E9E425AB-58C3-42C7-A1AA-18A49E40D410}" name="pump_simdo" dataDxfId="22"/>
-    <tableColumn id="19" xr3:uid="{25853BC7-AA92-43CF-92BB-4C1EB59D3445}" name="tochul" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{B8A7B795-4FAC-4E8C-A6DA-C0C16CDBF939}" name="pumping_capacity" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_diameter" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natural" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{A26A3D45-DB5B-4A07-B011-7CCAD006DAAE}" name="stable_time" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{A712B0EE-D79B-4070-A46A-ED247FD69C4F}" name="longterm_test_time" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{3CD6EF40-B05B-4C81-9E87-C143C135F695}" name="bedrock" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{87BF1DD3-1D67-490E-BE05-E27BB394B7DD}" name="ph" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}" name="표1" displayName="표1" ref="A1:T29" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+  <autoFilter ref="A1:T29" xr:uid="{00D75863-392D-47F4-816F-9DED009E88A2}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{6966E024-5B7D-4BFD-902D-F5A2CC286734}" name="gong" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{B4FD8B7F-6070-4FF0-80D6-327B227030C9}" name="address" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{0DF67EF2-B0FF-4B62-A2C7-C83B41E6C7DE}" name="hp" dataDxfId="25"/>
+    <tableColumn id="18" xr3:uid="{E9E425AB-58C3-42C7-A1AA-18A49E40D410}" name="pump_simdo" dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{25853BC7-AA92-43CF-92BB-4C1EB59D3445}" name="tochul" dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{B8A7B795-4FAC-4E8C-A6DA-C0C16CDBF939}" name="pumping_capacity" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{924F5A5E-290B-4035-8CB0-10BC292CCB3B}" name="casing" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{A6E65C5A-D6A6-4B51-9839-269651B775D6}" name="well_diameter" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{BE4E2369-8788-4538-941E-216CB9EC053A}" name="simdo" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{A888447B-BA76-4C9D-AC2F-A78B600CB6A6}" name="q" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{96B661C4-81A3-4F22-9B84-20AE22000FB5}" name="natural" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{792CF3E8-6671-451C-875B-4B08C7F6A2BF}" name="stable" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{2B9B97F1-2168-4CD5-8A91-CFD5B8FC2000}" name="Project Name" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{61C4B4A4-570E-4274-9B92-E7AA90036368}" name="Jigu Name" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{B0F7E805-AA0B-497F-97AA-BF9F53B3C965}" name="Company" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{A26A3D45-DB5B-4A07-B011-7CCAD006DAAE}" name="stable_time" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{A712B0EE-D79B-4070-A46A-ED247FD69C4F}" name="longterm_test_time" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{3CD6EF40-B05B-4C81-9E87-C143C135F695}" name="bedrock" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{87BF1DD3-1D67-490E-BE05-E27BB394B7DD}" name="ph" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{BDF25816-903F-4E48-8C52-DC45AF68ADAE}" name="yangsoo_time" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:E28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
-  <autoFilter ref="D1:E28" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="4" dataCellStyle="표준 2"/>
-    <tableColumn id="2" xr3:uid="{E50CFF5F-CC3C-46D1-A33E-D131F0C282A4}" name="안정수위 도달시간" dataDxfId="3" dataCellStyle="표준 2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:F28" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+  <autoFilter ref="D1:F28" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="6" dataCellStyle="표준 2"/>
+    <tableColumn id="2" xr3:uid="{E50CFF5F-CC3C-46D1-A33E-D131F0C282A4}" name="안정수위 도달시간" dataDxfId="5" dataCellStyle="표준 2"/>
+    <tableColumn id="3" xr3:uid="{21FB5381-50AB-4457-BB50-71397382ACB4}" name="양수시험시간" dataDxfId="0" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}" name="표8" displayName="표8" ref="C1:C11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}" name="표8" displayName="표8" ref="C1:C11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
   <autoFilter ref="C1:C11" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D0C0DE7A-B5E2-4A78-89A1-D914B8054472}" name="수중모터" dataDxfId="0" dataCellStyle="표준 2"/>
+    <tableColumn id="1" xr3:uid="{D0C0DE7A-B5E2-4A78-89A1-D914B8054472}" name="수중모터" dataDxfId="2" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2429,10 +2484,10 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2455,9 +2510,10 @@
     <col min="16" max="16" width="23.125" customWidth="1"/>
     <col min="17" max="17" width="24" customWidth="1"/>
     <col min="18" max="18" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="58.5" customHeight="1">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="58.5" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -2515,8 +2571,11 @@
       <c r="S1" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="21.95" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -2574,8 +2633,11 @@
       <c r="S2" s="5">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T2" s="5">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="21.95" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="4"/>
       <c r="C3" s="1"/>
@@ -2595,8 +2657,9 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="21.95" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
@@ -2616,8 +2679,9 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="21.95" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="4"/>
       <c r="C5" s="1"/>
@@ -2637,8 +2701,9 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="21.95" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
@@ -2658,8 +2723,9 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" ht="21.95" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2679,8 +2745,9 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" ht="21.95" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2700,8 +2767,9 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" ht="21.95" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2721,8 +2789,9 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" ht="21.95" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2742,8 +2811,9 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" ht="21.95" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2763,8 +2833,9 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" ht="21.95" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2784,8 +2855,9 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" ht="21.95" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2805,8 +2877,9 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" ht="21.95" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2826,8 +2899,9 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" ht="21.95" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2847,8 +2921,9 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" ht="21.95" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2868,8 +2943,9 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" ht="21.95" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2889,8 +2965,9 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" ht="21.95" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2910,8 +2987,9 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" ht="21.95" customHeight="1">
       <c r="A19" s="13"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2931,8 +3009,9 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" ht="21.95" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2952,8 +3031,9 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" ht="21.95" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2973,8 +3053,9 @@
       <c r="Q21" s="16"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" ht="21.95" customHeight="1">
       <c r="A22" s="13"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2994,8 +3075,9 @@
       <c r="Q22" s="16"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" ht="21.95" customHeight="1">
       <c r="A23" s="13"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3015,8 +3097,9 @@
       <c r="Q23" s="16"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-    </row>
-    <row r="24" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" ht="21.95" customHeight="1">
       <c r="A24" s="13"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3036,8 +3119,9 @@
       <c r="Q24" s="16"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" ht="21.95" customHeight="1">
       <c r="A25" s="13"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3057,8 +3141,9 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-    </row>
-    <row r="26" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" ht="21.95" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3078,8 +3163,9 @@
       <c r="Q26" s="16"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-    </row>
-    <row r="27" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" ht="21.95" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3099,8 +3185,9 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-    </row>
-    <row r="28" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" ht="21.95" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3120,8 +3207,9 @@
       <c r="Q28" s="16"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-    </row>
-    <row r="29" spans="1:19" ht="21.95" customHeight="1">
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" ht="21.95" customHeight="1">
       <c r="A29" s="17"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -3141,10 +3229,11 @@
       <c r="Q29" s="18"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
-    </row>
-    <row r="30" spans="1:19" ht="21.95" customHeight="1"/>
-    <row r="31" spans="1:19" ht="21.95" customHeight="1"/>
-    <row r="32" spans="1:19" ht="21.95" customHeight="1"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="1:20" ht="21.95" customHeight="1"/>
+    <row r="31" spans="1:20" ht="21.95" customHeight="1"/>
+    <row r="32" spans="1:20" ht="21.95" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3155,7 +3244,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{03E0BB34-266E-495F-83FF-98FFAA1A60B9}">
           <x14:formula1>
             <xm:f>ref!$C$2:$C$11</xm:f>
@@ -3179,6 +3268,12 @@
             <xm:f>ref!$D$2:$D$28</xm:f>
           </x14:formula1>
           <xm:sqref>O2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0AC510E6-6CF0-43BD-B6F3-80DBD9056398}">
+          <x14:formula1>
+            <xm:f>ref!$F$2:$F$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>T2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3207,10 +3302,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061C8039-FB46-406D-96AD-6834A45FCD63}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3220,9 +3315,10 @@
     <col min="3" max="3" width="29.25" customWidth="1"/>
     <col min="4" max="4" width="26.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.875" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="33.75" customHeight="1">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="33.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -3238,8 +3334,11 @@
       <c r="E1" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="C2" s="8">
         <v>1</v>
       </c>
@@ -3249,8 +3348,11 @@
       <c r="E2" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="21">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="C3" s="8">
         <v>2</v>
       </c>
@@ -3260,8 +3362,11 @@
       <c r="E3" s="8">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="21">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="C4" s="8">
         <v>3</v>
       </c>
@@ -3271,8 +3376,9 @@
       <c r="E4" s="8">
         <v>140</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="C5" s="8">
         <v>5</v>
       </c>
@@ -3282,8 +3388,9 @@
       <c r="E5" s="8">
         <v>160</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="C6" s="8">
         <v>7.5</v>
       </c>
@@ -3293,8 +3400,9 @@
       <c r="E6" s="8">
         <v>180</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="C7" s="8">
         <v>10</v>
       </c>
@@ -3304,8 +3412,9 @@
       <c r="E7" s="8">
         <v>240</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="C8" s="8">
         <v>15</v>
       </c>
@@ -3315,8 +3424,9 @@
       <c r="E8" s="8">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="C9" s="8">
         <v>20</v>
       </c>
@@ -3326,8 +3436,9 @@
       <c r="E9" s="8">
         <v>360</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="C10" s="8">
         <v>25</v>
       </c>
@@ -3337,8 +3448,9 @@
       <c r="E10" s="8">
         <v>420</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="C11" s="8">
         <v>30</v>
       </c>
@@ -3348,124 +3460,142 @@
       <c r="E11" s="8">
         <v>480</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="8">
         <v>540</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="D13" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="8">
         <v>600</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="D14" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="8">
         <v>660</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="D15" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="8">
         <v>720</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="8">
         <v>780</v>
       </c>
-    </row>
-    <row r="17" spans="4:5">
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="4:6">
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="8">
         <v>840</v>
       </c>
-    </row>
-    <row r="18" spans="4:5">
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="4:6">
       <c r="D18" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="8">
         <v>900</v>
       </c>
-    </row>
-    <row r="19" spans="4:5">
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="4:6">
       <c r="D19" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="8">
         <v>960</v>
       </c>
-    </row>
-    <row r="20" spans="4:5">
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="4:6">
       <c r="D20" s="8"/>
       <c r="E20" s="8">
         <v>1020</v>
       </c>
-    </row>
-    <row r="21" spans="4:5">
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="4:6">
       <c r="D21" s="8"/>
       <c r="E21" s="8">
         <v>1080</v>
       </c>
-    </row>
-    <row r="22" spans="4:5">
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="4:6">
       <c r="D22" s="8"/>
       <c r="E22" s="8">
         <v>1140</v>
       </c>
-    </row>
-    <row r="23" spans="4:5">
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="4:6">
       <c r="D23" s="8"/>
       <c r="E23" s="8">
         <v>1200</v>
       </c>
-    </row>
-    <row r="24" spans="4:5">
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="4:6">
       <c r="D24" s="8"/>
       <c r="E24" s="8">
         <v>1260</v>
       </c>
-    </row>
-    <row r="25" spans="4:5">
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="4:6">
       <c r="D25" s="8"/>
       <c r="E25" s="8">
         <v>1320</v>
       </c>
-    </row>
-    <row r="26" spans="4:5">
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="4:6">
       <c r="D26" s="8"/>
       <c r="E26" s="8">
         <v>1380</v>
       </c>
-    </row>
-    <row r="27" spans="4:5">
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="4:6">
       <c r="D27" s="8"/>
       <c r="E27" s="8">
         <v>1440</v>
       </c>
-    </row>
-    <row r="28" spans="4:5">
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="4:6">
       <c r="D28" s="8"/>
       <c r="E28" s="8">
         <v>1500</v>
       </c>
+      <c r="F28" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
+++ b/01_Acquifer Pumping Test/00_양수시험, 테스트 벨류/YanSoo_Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\09_hardRain\10_ihanseol - 2025\10_음용수 - 논산시, 한삼천외 8지구, 3개소 연장허가 - (주)환일\01_논산시 연산면 표정리 333-3\04_양수시험\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\09_hardRain\10_ihanseol - 2025\14_농업용 - 공주시, 농업용관정 3개소 연장허가 - (합)유앤아이\01_충남 공주시 정안면 대산리 107-1, (실지번, 대산리 90-1)\04_양수시험\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6587398-DC4D-4D1A-B713-78FD942F5870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD75549-004E-42CD-8EC1-882742B82782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="405" windowWidth="29925" windowHeight="19710" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
+    <workbookView xWindow="7950" yWindow="1095" windowWidth="29565" windowHeight="19935" xr2:uid="{7A4E816D-45D9-496E-8D4D-938447092D62}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>W-1</t>
   </si>
@@ -878,10 +878,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>흑운모호상편마암</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>natural</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -907,17 +903,6 @@
   </si>
   <si>
     <t>pumping_capacity</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>논산시 성동면 원남리 1428번지</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>원남지구 한발재해대책 관정개발공사</t>
-  </si>
-  <si>
-    <t>원남지구</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -936,14 +921,43 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>(주)환일</t>
-  </si>
-  <si>
     <t>yangsoo_time</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>양수시험시간</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남 공주시 정안면 대산리 107-1</t>
+  </si>
+  <si>
+    <t>2025년 농업용관정 영향조사용역</t>
+  </si>
+  <si>
+    <t>대산리 107-1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>합)유앤아이</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>(합)유앤아이</t>
+  </si>
+  <si>
+    <t>화강암질편마암</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1083,17 +1097,17 @@
       <charset val="129"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFC00000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1323,7 +1337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1366,9 +1380,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1381,14 +1392,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -1421,48 +1429,6 @@
     <cellStyle name="표준 3" xfId="1" xr:uid="{45FF3674-0159-4243-B7B4-B71CAAF105AC}"/>
   </cellStyles>
   <dxfs count="33">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1598,6 +1564,48 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2155,29 +2163,29 @@
     <tableColumn id="14" xr3:uid="{A712B0EE-D79B-4070-A46A-ED247FD69C4F}" name="longterm_test_time" dataDxfId="11"/>
     <tableColumn id="15" xr3:uid="{3CD6EF40-B05B-4C81-9E87-C143C135F695}" name="bedrock" dataDxfId="10"/>
     <tableColumn id="16" xr3:uid="{87BF1DD3-1D67-490E-BE05-E27BB394B7DD}" name="ph" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{BDF25816-903F-4E48-8C52-DC45AF68ADAE}" name="yangsoo_time" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{BDF25816-903F-4E48-8C52-DC45AF68ADAE}" name="yangsoo_time" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:F28" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}" name="tableCorp" displayName="tableCorp" ref="D1:F28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
   <autoFilter ref="D1:F28" xr:uid="{BD8657F5-9C43-47F4-B598-A090AF91B3A2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="6" dataCellStyle="표준 2"/>
-    <tableColumn id="2" xr3:uid="{E50CFF5F-CC3C-46D1-A33E-D131F0C282A4}" name="안정수위 도달시간" dataDxfId="5" dataCellStyle="표준 2"/>
-    <tableColumn id="3" xr3:uid="{21FB5381-50AB-4457-BB50-71397382ACB4}" name="양수시험시간" dataDxfId="0" dataCellStyle="표준 2"/>
+    <tableColumn id="1" xr3:uid="{B76B8A1D-450B-4E5D-86C5-2DC40D113BFB}" name="조사자" dataDxfId="5" dataCellStyle="표준 2"/>
+    <tableColumn id="2" xr3:uid="{E50CFF5F-CC3C-46D1-A33E-D131F0C282A4}" name="안정수위 도달시간" dataDxfId="4" dataCellStyle="표준 2"/>
+    <tableColumn id="3" xr3:uid="{21FB5381-50AB-4457-BB50-71397382ACB4}" name="양수시험시간" dataDxfId="3" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}" name="표8" displayName="표8" ref="C1:C11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}" name="표8" displayName="표8" ref="C1:C11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
   <autoFilter ref="C1:C11" xr:uid="{BE293AC2-8E05-407B-95BD-148236808D18}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D0C0DE7A-B5E2-4A78-89A1-D914B8054472}" name="수중모터" dataDxfId="2" dataCellStyle="표준 2"/>
+    <tableColumn id="1" xr3:uid="{D0C0DE7A-B5E2-4A78-89A1-D914B8054472}" name="수중모터" dataDxfId="0" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2487,7 +2495,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2524,19 +2532,19 @@
         <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>2</v>
@@ -2545,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>4</v>
@@ -2569,66 +2577,66 @@
         <v>34</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="21.95" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="18">
         <v>5</v>
       </c>
-      <c r="D2" s="20">
-        <v>60</v>
-      </c>
-      <c r="E2" s="20">
+      <c r="D2" s="18">
+        <v>54</v>
+      </c>
+      <c r="E2" s="18">
         <v>50</v>
       </c>
       <c r="F2" s="1">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G2" s="1">
         <v>12</v>
       </c>
       <c r="H2" s="1">
+        <v>200</v>
+      </c>
+      <c r="I2" s="1">
+        <v>71</v>
+      </c>
+      <c r="J2" s="1">
         <v>250</v>
       </c>
-      <c r="I2" s="1">
-        <v>80</v>
-      </c>
-      <c r="J2" s="1">
-        <v>230</v>
-      </c>
-      <c r="K2" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="L2" s="20">
-        <v>19.7</v>
+      <c r="K2" s="18">
+        <v>6.9</v>
+      </c>
+      <c r="L2" s="18">
+        <v>40.200000000000003</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P2" s="1">
         <v>540</v>
       </c>
-      <c r="Q2" s="15">
-        <v>45726.430555555555</v>
+      <c r="Q2" s="14">
+        <v>45783.438888888886</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="S2" s="5">
         <v>7.2</v>
@@ -2654,7 +2662,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="16"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -2676,7 +2684,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="15"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -2698,7 +2706,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="16"/>
+      <c r="Q5" s="15"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -2720,7 +2728,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="16"/>
+      <c r="Q6" s="15"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -2742,7 +2750,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="16"/>
+      <c r="Q7" s="15"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -2764,7 +2772,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="16"/>
+      <c r="Q8" s="15"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -2786,7 +2794,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="16"/>
+      <c r="Q9" s="15"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -2808,7 +2816,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="16"/>
+      <c r="Q10" s="15"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -2830,7 +2838,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="16"/>
+      <c r="Q11" s="15"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
@@ -2852,7 +2860,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="16"/>
+      <c r="Q12" s="15"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2874,7 +2882,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="16"/>
+      <c r="Q13" s="15"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -2896,7 +2904,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="16"/>
+      <c r="Q14" s="15"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -2918,7 +2926,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="16"/>
+      <c r="Q15" s="15"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
@@ -2940,7 +2948,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="16"/>
+      <c r="Q16" s="15"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
@@ -2962,7 +2970,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="16"/>
+      <c r="Q17" s="15"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
@@ -2984,7 +2992,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="16"/>
+      <c r="Q18" s="15"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -3006,7 +3014,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="16"/>
+      <c r="Q19" s="15"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -3028,7 +3036,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="16"/>
+      <c r="Q20" s="15"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -3050,7 +3058,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="16"/>
+      <c r="Q21" s="15"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -3072,7 +3080,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="16"/>
+      <c r="Q22" s="15"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
@@ -3094,7 +3102,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="16"/>
+      <c r="Q23" s="15"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -3116,7 +3124,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="16"/>
+      <c r="Q24" s="15"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -3138,7 +3146,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="16"/>
+      <c r="Q25" s="15"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -3160,7 +3168,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="16"/>
+      <c r="Q26" s="15"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -3182,7 +3190,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="16"/>
+      <c r="Q27" s="15"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -3204,13 +3212,13 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="16"/>
+      <c r="Q28" s="15"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="21.95" customHeight="1">
-      <c r="A29" s="17"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -3226,7 +3234,7 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
-      <c r="Q29" s="18"/>
+      <c r="Q29" s="17"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
@@ -3305,7 +3313,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3334,8 +3342,8 @@
       <c r="E1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>49</v>
+      <c r="F1" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3348,7 +3356,7 @@
       <c r="E2" s="8">
         <v>0</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="8">
         <v>2880</v>
       </c>
     </row>
@@ -3362,7 +3370,7 @@
       <c r="E3" s="8">
         <v>120</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="8">
         <v>1440</v>
       </c>
     </row>
@@ -3376,7 +3384,7 @@
       <c r="E4" s="8">
         <v>140</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6">
       <c r="C5" s="8">
@@ -3388,7 +3396,7 @@
       <c r="E5" s="8">
         <v>160</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6">
       <c r="C6" s="8">
@@ -3400,7 +3408,7 @@
       <c r="E6" s="8">
         <v>180</v>
       </c>
-      <c r="F6" s="21"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6">
       <c r="C7" s="8">
@@ -3412,7 +3420,7 @@
       <c r="E7" s="8">
         <v>240</v>
       </c>
-      <c r="F7" s="21"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
       <c r="C8" s="8">
@@ -3424,7 +3432,7 @@
       <c r="E8" s="8">
         <v>300</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="8">
@@ -3436,7 +3444,7 @@
       <c r="E9" s="8">
         <v>360</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="8">
@@ -3448,7 +3456,7 @@
       <c r="E10" s="8">
         <v>420</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="8">
@@ -3460,7 +3468,7 @@
       <c r="E11" s="8">
         <v>480</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
       <c r="D12" s="8" t="s">
@@ -3469,7 +3477,7 @@
       <c r="E12" s="8">
         <v>540</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
       <c r="D13" s="8" t="s">
@@ -3478,7 +3486,7 @@
       <c r="E13" s="8">
         <v>600</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6">
       <c r="D14" s="8" t="s">
@@ -3487,7 +3495,7 @@
       <c r="E14" s="8">
         <v>660</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6">
       <c r="D15" s="9" t="s">
@@ -3496,7 +3504,7 @@
       <c r="E15" s="8">
         <v>720</v>
       </c>
-      <c r="F15" s="21"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6">
       <c r="D16" s="8" t="s">
@@ -3505,7 +3513,7 @@
       <c r="E16" s="8">
         <v>780</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="4:6">
       <c r="D17" s="8" t="s">
@@ -3514,88 +3522,90 @@
       <c r="E17" s="8">
         <v>840</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="8">
         <v>900</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E19" s="8">
         <v>960</v>
       </c>
-      <c r="F19" s="21"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="4:6">
-      <c r="D20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="E20" s="8">
         <v>1020</v>
       </c>
-      <c r="F20" s="21"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" s="8"/>
       <c r="E21" s="8">
         <v>1080</v>
       </c>
-      <c r="F21" s="21"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="8"/>
       <c r="E22" s="8">
         <v>1140</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="4:6">
       <c r="D23" s="8"/>
       <c r="E23" s="8">
         <v>1200</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" s="8"/>
       <c r="E24" s="8">
         <v>1260</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="4:6">
       <c r="D25" s="8"/>
       <c r="E25" s="8">
         <v>1320</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="4:6">
       <c r="D26" s="8"/>
       <c r="E26" s="8">
         <v>1380</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="4:6">
       <c r="D27" s="8"/>
       <c r="E27" s="8">
         <v>1440</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="4:6">
       <c r="D28" s="8"/>
       <c r="E28" s="8">
         <v>1500</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
